--- a/graph_definition/Layer_Concepts.xlsx
+++ b/graph_definition/Layer_Concepts.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmorfin/Desktop/M2/M2_test_scenario/Bluesky_tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmorfin/Desktop/M2/M2_test_scenario/graph_definition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D16E62-6FEC-AF42-A65E-0FD990F9468C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B614B7-DD1D-E945-AAB5-B1F722852370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37180" windowHeight="23500" xr2:uid="{661BB4EB-A2EA-49FB-9BF8-A4D5D5584BF0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Malik" sheetId="1" r:id="rId1"/>
-    <sheet name="Super Compact" sheetId="2" r:id="rId2"/>
-    <sheet name="Compact" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Malik" sheetId="1" r:id="rId2"/>
+    <sheet name="Super Compact" sheetId="2" r:id="rId3"/>
+    <sheet name="Compact" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="13">
   <si>
     <t>Turn layer</t>
   </si>
@@ -72,6 +73,9 @@
   <si>
     <t>Going north</t>
   </si>
+  <si>
+    <t>EAST LAYER</t>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +140,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -149,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -161,6 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,6 +190,441 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6ACDC7-CCBD-9A47-B005-2BD6EDA1770D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7747000" y="7200900"/>
+          <a:ext cx="0" cy="1384301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017117EA-6EC8-C24E-A250-8D07CB14865C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="5321300"/>
+          <a:ext cx="1346200" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B31E88-D846-A049-B927-89F6EABA9D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10109200" y="7061200"/>
+          <a:ext cx="1295400" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBB6711-FE9B-2244-BCB3-797E5782C752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="3987802"/>
+          <a:ext cx="12700" cy="1181098"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12702</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8066484A-FF7B-A849-B3FD-B3E6DE80E254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2743200" y="571500"/>
+          <a:ext cx="1676400" cy="12702"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15E193C2-7E71-6B4C-8AC9-ECBCFD6FB444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2692400" y="1346200"/>
+          <a:ext cx="1676400" cy="12702"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C09058A8-D0C7-2146-BC9D-CDB5B18A3D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2679700" y="2082800"/>
+          <a:ext cx="1676400" cy="12702"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177802</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F450299C-D06C-3C4D-B0F6-210C3C4AE200}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2743200" y="2832100"/>
+          <a:ext cx="1676400" cy="12702"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -588,11 +1034,675 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745BDE1F-A1A1-F043-832F-255E5675C5BB}">
+  <dimension ref="A3:Z45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="8"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="8"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+    </row>
+    <row r="41" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+    </row>
+    <row r="43" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+    </row>
+    <row r="44" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+    </row>
+    <row r="45" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="Z7:Z10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409424C6-ACDE-4CDA-85C1-AED70F552C96}">
   <dimension ref="A3:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V45" sqref="V45"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V45" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1627,6 +2737,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="Z3:Z10"/>
     <mergeCell ref="Z11:Z18"/>
     <mergeCell ref="Z19:Z26"/>
@@ -1643,10 +2757,6 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8493C0E-F760-4496-86DE-BBF817062C8B}">
   <dimension ref="A3:Z34"/>
   <sheetViews>
@@ -2616,16 +3726,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="Z31:Z34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="Z7:Z10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Z19:Z22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="Z23:Z26"/>
     <mergeCell ref="Z27:Z30"/>
     <mergeCell ref="A15:A16"/>
@@ -2634,19 +3740,23 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="Z7:Z10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Z19:Z22"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="Z31:Z34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FCCE8B-0AC9-4354-91C2-04F991565FC5}">
   <dimension ref="A3:Z38"/>
   <sheetViews>
@@ -3722,18 +4832,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Z3:Z8"/>
-    <mergeCell ref="Z9:Z14"/>
-    <mergeCell ref="Z15:Z20"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="Z27:Z32"/>
-    <mergeCell ref="Z33:Z38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
@@ -3746,6 +4844,18 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="Z33:Z38"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="Z3:Z8"/>
+    <mergeCell ref="Z9:Z14"/>
+    <mergeCell ref="Z15:Z20"/>
+    <mergeCell ref="Z21:Z26"/>
+    <mergeCell ref="Z27:Z32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/graph_definition/Layer_Concepts.xlsx
+++ b/graph_definition/Layer_Concepts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmorfin/Desktop/M2/M2_test_scenario/graph_definition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B614B7-DD1D-E945-AAB5-B1F722852370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19076D-2EED-BF45-804E-787D5FC5F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37180" windowHeight="23500" xr2:uid="{661BB4EB-A2EA-49FB-9BF8-A4D5D5584BF0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37180" windowHeight="23500" activeTab="3" xr2:uid="{661BB4EB-A2EA-49FB-9BF8-A4D5D5584BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>Turn layer</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>60 ft</t>
-  </si>
-  <si>
-    <t>90 ft</t>
   </si>
   <si>
     <t>Going East</t>
@@ -168,10 +165,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,74 +1034,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745BDE1F-A1A1-F043-832F-255E5675C5BB}">
   <dimension ref="A3:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
@@ -1131,12 +1128,12 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1148,7 +1145,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1163,68 +1160,68 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3"/>
@@ -1251,10 +1248,10 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1279,68 +1276,68 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="3"/>
@@ -1367,10 +1364,10 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="8"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1395,68 +1392,68 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3"/>
@@ -1483,10 +1480,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1511,7 +1508,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J22" s="7"/>
@@ -1679,18 +1676,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="Z7:Z10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="Z11:Z14"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="Z15:Z18"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="Z7:Z10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1708,7 +1705,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
@@ -1735,12 +1732,12 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1767,10 +1764,10 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
@@ -1797,12 +1794,12 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1827,10 +1824,10 @@
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="2"/>
@@ -1857,10 +1854,10 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="8"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1887,10 +1884,10 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="3"/>
@@ -1917,12 +1914,12 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1934,7 +1931,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1949,10 +1946,10 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2"/>
@@ -1979,12 +1976,12 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2009,10 +2006,10 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4"/>
@@ -2039,10 +2036,10 @@
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="8"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2067,10 +2064,10 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="2"/>
@@ -2097,10 +2094,10 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="8"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2125,10 +2122,10 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="8"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="3"/>
@@ -2155,10 +2152,10 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2183,10 +2180,10 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="2"/>
@@ -2213,12 +2210,12 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="8" t="s">
+      <c r="Z19" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2243,10 +2240,10 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="4"/>
@@ -2273,10 +2270,10 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2301,10 +2298,10 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="2"/>
@@ -2331,10 +2328,10 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="8"/>
+      <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2359,10 +2356,10 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="3"/>
@@ -2389,10 +2386,10 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="8"/>
+      <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -2417,10 +2414,10 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="8"/>
+      <c r="Z26" s="9"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="2"/>
@@ -2447,12 +2444,12 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="8" t="s">
+      <c r="Z27" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2477,10 +2474,10 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="8"/>
+      <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="4"/>
@@ -2507,10 +2504,10 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="8"/>
+      <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2535,10 +2532,10 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="8"/>
+      <c r="Z30" s="9"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="2"/>
@@ -2565,10 +2562,10 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="8"/>
+      <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2593,10 +2590,10 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="8"/>
+      <c r="Z32" s="9"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="3"/>
@@ -2623,10 +2620,10 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="8"/>
+      <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2651,7 +2648,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="9"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J38" s="7"/>
@@ -2737,6 +2734,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
@@ -2753,10 +2754,6 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,7 +2772,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
@@ -2802,14 +2799,14 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2834,10 +2831,10 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
@@ -2864,12 +2861,12 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="8"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2881,7 +2878,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2896,10 +2893,10 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4"/>
@@ -2926,12 +2923,12 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="8" t="s">
+      <c r="Z7" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2956,10 +2953,10 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="2"/>
@@ -2986,10 +2983,10 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="8"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -3014,10 +3011,10 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="4"/>
@@ -3044,12 +3041,12 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="8" t="s">
+      <c r="Z11" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -3074,10 +3071,10 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2"/>
@@ -3104,10 +3101,10 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="8"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3132,10 +3129,10 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="4"/>
@@ -3162,12 +3159,12 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="8" t="s">
+      <c r="Z15" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3192,10 +3189,10 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="8"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B17" s="2"/>
@@ -3222,10 +3219,10 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="8"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3250,10 +3247,10 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="4"/>
@@ -3280,12 +3277,12 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="8" t="s">
+      <c r="Z19" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3310,10 +3307,10 @@
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="2"/>
@@ -3340,10 +3337,10 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="8"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3368,10 +3365,10 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="4"/>
@@ -3398,12 +3395,12 @@
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="8" t="s">
+      <c r="Z23" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3428,10 +3425,10 @@
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="2"/>
@@ -3458,10 +3455,10 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="8"/>
+      <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3486,10 +3483,10 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="8"/>
+      <c r="Z26" s="9"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="4"/>
@@ -3516,12 +3513,12 @@
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="8" t="s">
+      <c r="Z27" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -3546,10 +3543,10 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="8"/>
+      <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2"/>
@@ -3576,10 +3573,10 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="8"/>
+      <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3604,10 +3601,10 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="8"/>
+      <c r="Z30" s="9"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="4"/>
@@ -3634,12 +3631,12 @@
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="8" t="s">
+      <c r="Z31" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3664,10 +3661,10 @@
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="8"/>
+      <c r="Z32" s="9"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="2"/>
@@ -3694,10 +3691,10 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="8"/>
+      <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3722,16 +3719,20 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="Z31:Z34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="Z7:Z10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Z19:Z22"/>
     <mergeCell ref="Z23:Z26"/>
     <mergeCell ref="Z27:Z30"/>
     <mergeCell ref="A15:A16"/>
@@ -3740,16 +3741,12 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="Z7:Z10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Z19:Z22"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="Z31:Z34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3758,51 +3755,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FCCE8B-0AC9-4354-91C2-04F991565FC5}">
-  <dimension ref="A3:Z38"/>
+  <dimension ref="A2:Z44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="9">
+        <v>25</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="9"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="9">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3826,43 +3851,45 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="8"/>
+      <c r="Z4" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="9">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3886,43 +3913,43 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="8"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="9">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3932,9 +3959,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3948,42 +3973,44 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="8"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9">
+        <v>25</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -4008,40 +4035,42 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="8"/>
+      <c r="Z10" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9">
+        <v>25</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4066,40 +4095,40 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="8"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9">
+        <v>25</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -4124,42 +4153,40 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9">
+        <v>25</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -4184,40 +4211,42 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="8"/>
+      <c r="Z16" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9">
+        <v>25</v>
+      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -4242,40 +4271,40 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="8"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="9"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9">
+        <v>25</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -4300,42 +4329,40 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="8"/>
+      <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9">
+        <v>25</v>
+      </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -4360,40 +4387,42 @@
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="8"/>
+      <c r="Z22" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9">
+        <v>25</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4418,40 +4447,40 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="8"/>
+      <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="9"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -4476,42 +4505,40 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="8"/>
+      <c r="Z26" s="9"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9">
+        <v>25</v>
+      </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -4536,40 +4563,42 @@
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="8"/>
+      <c r="Z28" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9">
+        <v>25</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4594,40 +4623,40 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="8"/>
+      <c r="Z30" s="9"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9">
+        <v>25</v>
+      </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -4652,42 +4681,40 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="8"/>
+      <c r="Z32" s="9"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="8" t="s">
-        <v>4</v>
-      </c>
+      <c r="A33" s="9"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9">
+        <v>25</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -4712,40 +4739,42 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="8"/>
+      <c r="Z34" s="9">
+        <v>75</v>
+      </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9">
+        <v>25</v>
+      </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -4770,40 +4799,40 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="8"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="9"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9">
+        <v>25</v>
+      </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -4828,34 +4857,136 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="8"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="9"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f>SUM(A2:A41)</f>
+        <v>500</v>
+      </c>
+      <c r="Z44">
+        <f>SUM(Z2:Z41)</f>
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="Z33:Z38"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="Z3:Z8"/>
-    <mergeCell ref="Z9:Z14"/>
-    <mergeCell ref="Z15:Z20"/>
-    <mergeCell ref="Z21:Z26"/>
-    <mergeCell ref="Z27:Z32"/>
+  <mergeCells count="28">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="Z40:Z41"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="Z4:Z9"/>
+    <mergeCell ref="Z10:Z15"/>
+    <mergeCell ref="Z16:Z21"/>
+    <mergeCell ref="Z22:Z27"/>
+    <mergeCell ref="Z28:Z33"/>
+    <mergeCell ref="Z34:Z39"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/graph_definition/Layer_Concepts.xlsx
+++ b/graph_definition/Layer_Concepts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresmorfin/Desktop/M2/M2_test_scenario/graph_definition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19076D-2EED-BF45-804E-787D5FC5F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C2A83-99F8-6349-8BCC-FCA4D4B5CF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37180" windowHeight="23500" activeTab="3" xr2:uid="{661BB4EB-A2EA-49FB-9BF8-A4D5D5584BF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>Turn layer</t>
   </si>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +99,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,11 +150,35 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -156,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -169,6 +200,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1676,18 +1718,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="Z3:Z6"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="Z7:Z10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2734,13 +2776,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="Z3:Z10"/>
     <mergeCell ref="Z11:Z18"/>
@@ -2754,6 +2789,13 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3723,16 +3765,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="Z31:Z34"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="Z7:Z10"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="Z15:Z18"/>
-    <mergeCell ref="Z19:Z22"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="Z23:Z26"/>
     <mergeCell ref="Z27:Z30"/>
     <mergeCell ref="A15:A16"/>
@@ -3741,12 +3779,16 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="Z7:Z10"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="Z15:Z18"/>
+    <mergeCell ref="Z19:Z22"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="Z31:Z34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3755,10 +3797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FCCE8B-0AC9-4354-91C2-04F991565FC5}">
-  <dimension ref="A2:Z44"/>
+  <dimension ref="A2:Z89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="W86" sqref="W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4957,8 +4999,1066 @@
         <v>500</v>
       </c>
     </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="Z40:Z41"/>
@@ -4975,18 +6075,6 @@
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
